--- a/bots/crawl_ch/output/clothes_2022-07-11.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-11.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:21</t>
+          <t>2022-07-11 20:58:51</t>
         </is>
       </c>
     </row>
